--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreySE_SV.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreySE_SV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49BDE2-0949-49E2-B4BF-2751F4A6E660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F74F6C-6AFB-4046-BE46-373678C40427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15480" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15480" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="276">
   <si>
     <t>DataSet</t>
   </si>
@@ -318,9 +318,6 @@
   </si>
   <si>
     <t>Account validation</t>
-  </si>
-  <si>
-    <t>My Orders,My Favorites,Address Book,Account Information,Gift Registry,Stored Payment Methods,Newsletter Subscriptions,My Trade-In Forms,Reward Points,Pro Deal</t>
   </si>
   <si>
     <t>Product</t>
@@ -907,6 +904,15 @@
   </si>
   <si>
     <t>Abcd@123</t>
+  </si>
+  <si>
+    <t>vnarrai@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>vnarra@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>Kontoinformation,Adressbok,Mina beställningar,Gift Registry,My Wishlist,PRESENTKORT,Mina Slut i lager prenumerationer,Butikens kredit,Lagrade betalningsmetoder,Prenumerationer på nyhetsbrev</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1562,10 +1568,10 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1637,10 +1643,10 @@
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>46</v>
@@ -1702,49 +1708,49 @@
         <v>76</v>
       </c>
       <c r="O2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" t="s">
         <v>98</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
         <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="K5">
         <v>123</v>
@@ -1752,10 +1758,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" t="s">
         <v>95</v>
-      </c>
-      <c r="T6" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -1829,10 +1835,10 @@
         <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>52</v>
@@ -1882,75 +1888,75 @@
         <v>76</v>
       </c>
       <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="S3" t="s">
-        <v>266</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
         <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2031,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>51</v>
@@ -2052,13 +2058,13 @@
         <v>48</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2084,36 +2090,36 @@
         <v>76</v>
       </c>
       <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
         <v>98</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>99</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
       <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="S3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -2121,60 +2127,60 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
         <v>169</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" t="s">
         <v>171</v>
       </c>
-      <c r="H4" t="s">
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="Y4">
         <v>2</v>
       </c>
       <c r="Z4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA4" t="s">
         <v>174</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
         <v>176</v>
       </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" t="s">
-        <v>177</v>
-      </c>
       <c r="R5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2220,52 +2226,52 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" t="s">
         <v>184</v>
-      </c>
-      <c r="G3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>187</v>
-      </c>
       <c r="I4" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2306,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="9"/>
@@ -2385,7 +2391,7 @@
         <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>52</v>
@@ -2435,24 +2441,24 @@
         <v>76</v>
       </c>
       <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>64</v>
@@ -2461,19 +2467,19 @@
         <v>76</v>
       </c>
       <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
         <v>104</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>105</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -2498,7 +2504,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
         <v>64</v>
@@ -2507,24 +2513,24 @@
         <v>76</v>
       </c>
       <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
         <v>104</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>105</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G6" t="s">
         <v>64</v>
@@ -2533,22 +2539,22 @@
         <v>76</v>
       </c>
       <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
         <v>98</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="M6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2621,7 +2627,7 @@
         <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>49</v>
@@ -2630,7 +2636,7 @@
         <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>51</v>
@@ -2674,33 +2680,33 @@
         <v>76</v>
       </c>
       <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -2789,13 +2795,13 @@
         <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -2823,92 +2829,92 @@
         <v>76</v>
       </c>
       <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>99</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" t="s">
         <v>201</v>
       </c>
-      <c r="N3" t="s">
-        <v>202</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" t="s">
         <v>149</v>
-      </c>
-      <c r="M4" t="s">
-        <v>150</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="R7" t="s">
         <v>205</v>
-      </c>
-      <c r="R7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S8" t="s">
         <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2987,7 @@
         <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>52</v>
@@ -3013,26 +3019,26 @@
         <v>65</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>63</v>
@@ -3319,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDE721-2994-4A91-8C89-FADAE76105D8}">
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,19 +3370,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -3430,10 +3436,10 @@
         <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -3441,22 +3447,22 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3470,61 +3476,61 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" t="s">
         <v>98</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="T3" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="U3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" t="s">
-        <v>146</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="AA5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB5">
         <v>123</v>
@@ -3532,13 +3538,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="AA6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB6">
         <v>1234</v>
@@ -3546,13 +3552,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="AA7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB7">
         <v>123</v>
@@ -3560,13 +3566,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AA8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="AB8">
         <v>123</v>
@@ -3600,10 +3606,10 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3611,20 +3617,20 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="S10" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -3633,13 +3639,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="AA11" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="AB11">
         <v>12</v>
@@ -3647,15 +3653,15 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3664,7 +3670,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -3675,7 +3681,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3687,7 +3693,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
         <v>64</v>
@@ -3696,30 +3702,30 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" t="s">
         <v>104</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="S14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3741,19 +3747,19 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" t="s">
         <v>231</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>232</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="S15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V15" s="5"/>
       <c r="X15" s="5"/>
@@ -3761,13 +3767,13 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3789,48 +3795,48 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" t="s">
         <v>237</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>238</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="S16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V17" s="5"/>
       <c r="X17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" t="s">
         <v>242</v>
-      </c>
-      <c r="J19" t="s">
-        <v>243</v>
       </c>
       <c r="M19" t="s">
         <v>64</v>
@@ -3839,59 +3845,59 @@
         <v>76</v>
       </c>
       <c r="AC19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD23" t="s">
         <v>248</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>249</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3944,31 +3950,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
@@ -3992,7 +3998,7 @@
         <v>44</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>52</v>
@@ -4037,7 +4043,7 @@
         <v>50</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -4072,64 +4078,64 @@
         <v>76</v>
       </c>
       <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" t="s">
         <v>98</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>99</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="V3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="W3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>183</v>
-      </c>
       <c r="Y3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" t="s">
         <v>95</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB5" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AB5" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="AC5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD5">
         <v>123</v>
@@ -4137,13 +4143,13 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AB6" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="AC6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD6">
         <v>1234</v>
@@ -4151,13 +4157,13 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="AC7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD7">
         <v>123</v>
@@ -4165,13 +4171,13 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AC8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="AD8">
         <v>123</v>
@@ -4207,13 +4213,13 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -4222,7 +4228,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>66</v>
@@ -4231,7 +4237,7 @@
         <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4247,7 +4253,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
         <v>64</v>
@@ -4256,47 +4262,47 @@
         <v>76</v>
       </c>
       <c r="Q12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" t="s">
         <v>104</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T12" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="U12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="V13" t="s">
         <v>149</v>
-      </c>
-      <c r="V13" t="s">
-        <v>150</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Z13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" t="s">
         <v>242</v>
-      </c>
-      <c r="L15" t="s">
-        <v>243</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
@@ -4305,62 +4311,62 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K20" s="5"/>
       <c r="O20" t="s">
@@ -4370,65 +4376,65 @@
         <v>64</v>
       </c>
       <c r="AE20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF25" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG25" t="s">
         <v>264</v>
       </c>
-      <c r="AG25" t="s">
-        <v>265</v>
-      </c>
       <c r="AH25" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI25" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK25" s="5"/>
     </row>
@@ -4498,7 +4504,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>39</v>
@@ -4598,7 +4604,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -4785,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4880,8 +4886,8 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
+      <c r="B2" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -4898,7 +4904,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -4906,38 +4912,38 @@
         <v>88</v>
       </c>
       <c r="Q3" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" t="s">
         <v>90</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="V4" t="s">
         <v>92</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" t="s">
         <v>95</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
@@ -4946,19 +4952,19 @@
         <v>76</v>
       </c>
       <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>99</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4966,7 +4972,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -4975,19 +4981,19 @@
         <v>76</v>
       </c>
       <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -4995,30 +5001,30 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -5029,12 +5035,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{843128BB-35D6-4358-9D44-329F6CB813ED}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{BDEDD413-C2CC-486E-97A6-B386FE7C98AC}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{88A0D8CE-1A55-4F67-AEFF-7E5860B29E1C}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{8FC26F4D-A994-4BC5-9F70-905AE2CE7C0D}"/>
-    <hyperlink ref="P9" r:id="rId5" xr:uid="{9EAB716C-672A-4D26-B15D-2EC3D50724B4}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{36554E03-705C-4C37-BB24-9C9BB4D15F19}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{BDEDD413-C2CC-486E-97A6-B386FE7C98AC}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{88A0D8CE-1A55-4F67-AEFF-7E5860B29E1C}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{8FC26F4D-A994-4BC5-9F70-905AE2CE7C0D}"/>
+    <hyperlink ref="P9" r:id="rId4" xr:uid="{9EAB716C-672A-4D26-B15D-2EC3D50724B4}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{36554E03-705C-4C37-BB24-9C9BB4D15F19}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{D3049BA4-A1FB-4610-93D0-F4CAF9EEED9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5083,7 +5089,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>42</v>
@@ -5095,28 +5101,28 @@
         <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>49</v>
@@ -5130,196 +5136,196 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s">
         <v>128</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" t="s">
         <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" t="s">
         <v>133</v>
-      </c>
-      <c r="P3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" t="s">
-        <v>134</v>
       </c>
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>71</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4">
         <v>10</v>
       </c>
       <c r="O4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>130</v>
+      </c>
+      <c r="T4" t="s">
         <v>136</v>
-      </c>
-      <c r="P4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" t="s">
-        <v>131</v>
-      </c>
-      <c r="T4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="10"/>
       <c r="K5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="V6" t="s">
         <v>92</v>
       </c>
-      <c r="U6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5409,10 @@
         <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>49</v>
@@ -5457,63 +5463,63 @@
         <v>76</v>
       </c>
       <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>99</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" t="s">
-        <v>146</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" t="s">
         <v>95</v>
-      </c>
-      <c r="T4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="V5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -5536,12 +5542,12 @@
       </c>
       <c r="K6" s="5"/>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -5550,43 +5556,43 @@
         <v>76</v>
       </c>
       <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
         <v>104</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" t="s">
-        <v>106</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" t="s">
         <v>149</v>
       </c>
-      <c r="O8" t="s">
-        <v>150</v>
-      </c>
       <c r="S8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
       <c r="N9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5668,28 +5674,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,16 +5751,16 @@
         <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5810,41 +5816,41 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
         <v>153</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>155</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
@@ -5852,27 +5858,27 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
       <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L7" t="s">
         <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreySE_SV.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreySE_SV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F74F6C-6AFB-4046-BE46-373678C40427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28274A07-009E-4E7B-AFF2-37A6CE2B74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="15480" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21420" windowHeight="10515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="303">
   <si>
     <t>DataSet</t>
   </si>
@@ -137,34 +137,13 @@
     <t>Outdoor Packs</t>
   </si>
   <si>
-    <t>Backpacking Backpacks,Hiking Backpacks,Cycling Backpacks,Running Backpacks,Climbing &amp; Mountaineering Packs,Ski &amp; Snowboarding Backpacks,Waterproof Backpacks</t>
-  </si>
-  <si>
     <t>Kids Packs Carriers</t>
   </si>
   <si>
-    <t>Child Carriers,Childrens Backpacks</t>
-  </si>
-  <si>
     <t>Day Packs</t>
   </si>
   <si>
-    <t>College &amp; Uni Bags,Lifestyle Backpacks,Burn Bags,Tote Bags,Sling Bags</t>
-  </si>
-  <si>
-    <t>Carry-On Luggage,Duffel Bags,Travel Backpacks,Wheeled Bag,Checked Luggage</t>
-  </si>
-  <si>
-    <t>Backpack,Travel,Hydration &amp; Reservoirs,Apparel &amp; Goods</t>
-  </si>
-  <si>
-    <t>SALE,New Arrivals,Best Sellers</t>
-  </si>
-  <si>
     <t>ShopAll</t>
-  </si>
-  <si>
-    <t>Outdoor Packs,Kids Packs &amp; Carriers,Day Packs</t>
   </si>
   <si>
     <t>methods</t>
@@ -914,6 +893,108 @@
   <si>
     <t>Kontoinformation,Adressbok,Mina beställningar,Gift Registry,My Wishlist,PRESENTKORT,Mina Slut i lager prenumerationer,Butikens kredit,Lagrade betalningsmetoder,Prenumerationer på nyhetsbrev</t>
   </si>
+  <si>
+    <t>Backpacks</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>Daypacks</t>
+  </si>
+  <si>
+    <t>Travels</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Featureds</t>
+  </si>
+  <si>
+    <t>Backpackingryggsäckar,Vandringsryggsäckar,Cykla,Löpning,Ryggsäckar för klättring och mountaineering,Ryggsäckar för vintersporter,Vattentäta ryggsäckar</t>
+  </si>
+  <si>
+    <t>Ryggsäckar och väskor</t>
+  </si>
+  <si>
+    <t>Friluftsryggsäckar</t>
+  </si>
+  <si>
+    <t>Bärstolar,Barnryggsäckar</t>
+  </si>
+  <si>
+    <t>Dagsryggsäckar</t>
+  </si>
+  <si>
+    <t>College &amp; University Bags,Lifestyle-ryggsäckar,Bum Bags,bärpåsar,Axelväskor</t>
+  </si>
+  <si>
+    <t>Handbagage,Duffelväskor,Reseryggsäckar,Resväska på hjul,Väskor för incheckning</t>
+  </si>
+  <si>
+    <t>Transporter</t>
+  </si>
+  <si>
+    <t>Tillbehör</t>
+  </si>
+  <si>
+    <t>Ryggsäck,Resor,Vätskesystem</t>
+  </si>
+  <si>
+    <t>Utvalda</t>
+  </si>
+  <si>
+    <t>Rea,Bästsäljare,PRESENTKORT,Presentguide</t>
+  </si>
+  <si>
+    <t>Satisfy x Osprey,Gift Cards,Best Sellers,Green Friday</t>
+  </si>
+  <si>
+    <t>Friluftsryggsäckar,Barnväskor och bärselar,Dagsryggsäckar</t>
+  </si>
+  <si>
+    <t>Shop by Activity</t>
+  </si>
+  <si>
+    <t>Handla efter aktivitet</t>
+  </si>
+  <si>
+    <t>Vardagsbruk,Resor,Skidåkning och snowboard,Backpacking,Vandra,Klättring och mountaineering,Traillöpning</t>
+  </si>
+  <si>
+    <t>Travel,Backpacking,Hiking,Lifestyle,Trail Running,Climbing &amp; Mountaineering,Skiing &amp; Snowboarding</t>
+  </si>
+  <si>
+    <t>Shop by Collections</t>
+  </si>
+  <si>
+    <t>Handla efter kollektion</t>
+  </si>
+  <si>
+    <t>Soelden &amp; Sopris,Mutant,Zealot,Farpoint &amp; Fairview,Transporter Collection,Daylite,Atmos AG &amp; Aura AG,Nyheter Exos/Eja,UNLTD Hike,Talon &amp; Tempest,Vattentäta väskor,Archeon,Escapist,Poco Changing Packs,Osprey Pro,Aether &amp; Ariel,Firn,Osprey Earth,Camera</t>
+  </si>
+  <si>
+    <t>New Farpoint &amp; Fairview,New Talon &amp; Tempest,Atmos AG &amp; Aura AG,Osprey UNLTD™,Waterproof,Transporter,Daylite,Exos &amp; Eja,Mutant,Zealot,Soelden &amp; Sopris</t>
+  </si>
+  <si>
+    <t>Handla efter aktivitet,Handla efter kollektion</t>
+  </si>
+  <si>
+    <t>FeaturedShopAll</t>
+  </si>
+  <si>
+    <t>ImageShopAll</t>
+  </si>
 </sst>
 </file>
 
@@ -922,7 +1003,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1082,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1035,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1070,6 +1157,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1533,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1568,10 +1657,10 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1640,25 +1729,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1667,90 +1756,90 @@
         <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>123</v>
@@ -1758,10 +1847,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -1817,146 +1906,146 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2013,113 +2102,113 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -2127,60 +2216,60 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Y4">
         <v>2</v>
       </c>
       <c r="Z4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2211,67 +2300,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2302,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2312,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="9"/>
@@ -2376,185 +2465,185 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2612,101 +2701,101 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -2765,156 +2854,156 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2972,76 +3061,76 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3061,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F81B88-6947-41A5-88AD-6EBA8159F07F}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,32 +3185,50 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -3138,19 +3245,23 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="M2" s="25"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
       <c r="AD2" t="s">
@@ -3159,23 +3270,36 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="M3" s="25"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="M4" s="25"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
@@ -3183,64 +3307,124 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
+      <c r="H5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="25"/>
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="4"/>
+      <c r="K6" t="s">
+        <v>286</v>
+      </c>
+      <c r="L6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" s="25"/>
       <c r="V6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
+      <c r="M7" s="25"/>
+      <c r="N7" t="s">
+        <v>288</v>
+      </c>
+      <c r="O7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" t="s">
+        <v>290</v>
+      </c>
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2"/>
+      <c r="A8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="Q8" s="25" t="s">
+        <v>291</v>
+      </c>
       <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="N9" t="s">
+        <v>288</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="N10" t="s">
+        <v>288</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="P10" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="V10" s="5"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="25"/>
+      <c r="Q12" t="s">
+        <v>288</v>
+      </c>
       <c r="AD12" s="10"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -3370,19 +3554,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -3391,78 +3575,78 @@
         <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3470,67 +3654,67 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AB5">
         <v>123</v>
@@ -3538,13 +3722,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AB6">
         <v>1234</v>
@@ -3552,13 +3736,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AB7">
         <v>123</v>
@@ -3566,13 +3750,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AB8">
         <v>123</v>
@@ -3580,17 +3764,17 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3601,15 +3785,15 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3617,20 +3801,20 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -3639,13 +3823,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AB11">
         <v>12</v>
@@ -3653,15 +3837,15 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3670,18 +3854,18 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -3693,47 +3877,47 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="M14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" t="s">
-        <v>103</v>
-      </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Q14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -3741,25 +3925,25 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="V15" s="5"/>
       <c r="X15" s="5"/>
@@ -3767,21 +3951,21 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -3789,115 +3973,115 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="T17" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="V17" s="5"/>
       <c r="X17" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Y18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AD23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AE23" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="T24" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3950,31 +4134,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
@@ -3983,84 +4167,84 @@
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4072,70 +4256,70 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="V3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="W3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="Y3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AD5">
         <v>123</v>
@@ -4143,13 +4327,13 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AD6">
         <v>1234</v>
@@ -4157,13 +4341,13 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AD7">
         <v>123</v>
@@ -4171,13 +4355,13 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AD8">
         <v>123</v>
@@ -4185,15 +4369,15 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4208,18 +4392,18 @@
         <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -4228,16 +4412,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4253,188 +4437,188 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
         <v>96</v>
       </c>
-      <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>103</v>
-      </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="V13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Z13" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AA14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AE15" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K20" s="5"/>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AE20" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="V21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I22" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="V23" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="V24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AF25" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AH25" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AI25" s="21" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AK25" s="5"/>
     </row>
@@ -4501,110 +4685,110 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -4616,13 +4800,13 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2"/>
       <c r="S3" s="5"/>
@@ -4630,93 +4814,93 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="7"/>
       <c r="AG4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
       <c r="W5" s="5"/>
       <c r="AG5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH9" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4773,10 +4957,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4791,7 +4975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -4819,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4834,64 +5018,64 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4904,67 +5088,67 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4972,28 +5156,28 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -5001,30 +5185,30 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -5089,243 +5273,243 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="T3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="N4">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" t="s">
         <v>129</v>
-      </c>
-      <c r="R4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" t="s">
-        <v>130</v>
-      </c>
-      <c r="T4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H5" s="10"/>
       <c r="K5" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="U6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5394,205 +5578,205 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K6" s="5"/>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5644,58 +5828,58 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,28 +5923,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5784,17 +5968,17 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -5806,7 +5990,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
@@ -5816,41 +6000,41 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
@@ -5858,27 +6042,27 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreySE_SV.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreySE_SV.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28274A07-009E-4E7B-AFF2-37A6CE2B74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F150363-7D33-4EDD-B47A-B7BFD89DC919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21420" windowHeight="10515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="310">
   <si>
     <t>DataSet</t>
   </si>
@@ -994,6 +994,27 @@
   </si>
   <si>
     <t>ImageShopAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kr</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Drysacks</t>
+  </si>
+  <si>
+    <t>Fliters</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>Resor</t>
   </si>
 </sst>
 </file>
@@ -2811,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EA8A0A-8AB3-4C75-B640-7EA39F21ED70}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,15 +2844,16 @@
     <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,48 +2876,57 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2917,93 +2948,115 @@
       <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>90</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>193</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>194</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>141</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>196</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>197</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>143</v>
       </c>
-      <c r="S8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" t="s">
-        <v>144</v>
+      <c r="U8" t="s">
+        <v>279</v>
+      </c>
+      <c r="V8" t="s">
+        <v>286</v>
+      </c>
+      <c r="W8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>305</v>
+      </c>
+      <c r="O9" t="s">
+        <v>304</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3150,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F81B88-6947-41A5-88AD-6EBA8159F07F}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:Q12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
